--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Artn-Gfra3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Artn-Gfra3.xlsx
@@ -593,16 +593,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8137800000000001</v>
+        <v>0.8137799999999999</v>
       </c>
       <c r="H3">
         <v>2.44134</v>
       </c>
       <c r="I3">
-        <v>0.2803396080775711</v>
+        <v>0.280339608077571</v>
       </c>
       <c r="J3">
-        <v>0.2803396080775711</v>
+        <v>0.280339608077571</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>24.4094694426</v>
       </c>
       <c r="S3">
-        <v>0.2803396080775711</v>
+        <v>0.280339608077571</v>
       </c>
       <c r="T3">
-        <v>0.2803396080775711</v>
+        <v>0.280339608077571</v>
       </c>
     </row>
   </sheetData>
